--- a/test_template.xlsx
+++ b/test_template.xlsx
@@ -79,7 +79,7 @@
     <t>One-time gift</t>
   </si>
   <si>
-    <t>Robus</t>
+    <t>Hello</t>
   </si>
   <si>
     <t>robus@gmail.com</t>
